--- a/public/import/outlet_template (3).xlsx
+++ b/public/import/outlet_template (3).xlsx
@@ -1,25 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS-A4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apriansyahrs/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496AA3AE-D0FA-514C-A3C4-B3A1696A3818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="155">
   <si>
     <t>badan_usaha</t>
   </si>
@@ -57,34 +71,439 @@
     <t>latlong</t>
   </si>
   <si>
-    <t>CV.TOP</t>
-  </si>
-  <si>
-    <t>ORAIMO</t>
-  </si>
-  <si>
-    <t>JABO1</t>
-  </si>
-  <si>
-    <t>BOGOR1</t>
-  </si>
-  <si>
-    <t>RT04233</t>
-  </si>
-  <si>
-    <t>Firdaus Cell</t>
-  </si>
-  <si>
-    <t>Kp Cirumput RT 001/002 No11c Des Limus nunggal Kec Cileungsi Kab Bogor</t>
-  </si>
-  <si>
-    <t>BOGOR</t>
+    <t>CV. MAJU</t>
+  </si>
+  <si>
+    <t>ZTE</t>
+  </si>
+  <si>
+    <t>BIG TEGAL</t>
+  </si>
+  <si>
+    <t>ZTETGL1</t>
+  </si>
+  <si>
+    <t>BT02140</t>
+  </si>
+  <si>
+    <t>CV. DWI PUTRA</t>
+  </si>
+  <si>
+    <t>JL JEND SUDIRMAN 217 BATANG</t>
+  </si>
+  <si>
+    <t>BATANG</t>
+  </si>
+  <si>
+    <t>MAINTAIN</t>
+  </si>
+  <si>
+    <t>BTO5363</t>
+  </si>
+  <si>
+    <t>CV. JAYA SEMANGAT ABADI</t>
+  </si>
+  <si>
+    <t>JL SULTAN AGUNG NO 143 PEKALONGAN</t>
+  </si>
+  <si>
+    <t>PEKALONGAN</t>
+  </si>
+  <si>
+    <t>BT03317</t>
+  </si>
+  <si>
+    <t>CV. MITRA ESA PERKASA</t>
+  </si>
+  <si>
+    <t>JALAN HAYAM WURUK NO. 82 RT 001 RW 001, BENDAN</t>
+  </si>
+  <si>
+    <t>BTO5675</t>
+  </si>
+  <si>
+    <t>CV. MM CELL</t>
+  </si>
+  <si>
+    <t>JL JENDRAL SUDIRMAN RUKO PERHUTANI BLOK A NO 12- C1 PEMALANG</t>
+  </si>
+  <si>
+    <t>PEMALANG</t>
+  </si>
+  <si>
+    <t>BT00525</t>
+  </si>
+  <si>
+    <t>CV. OMEGA JAYA SEJAHTERA</t>
+  </si>
+  <si>
+    <t>JALAN MANGGIS NO. 45, SAMPANGAN</t>
+  </si>
+  <si>
+    <t>BTO4958</t>
+  </si>
+  <si>
+    <t>DEVI CELL PEKALONGAN</t>
+  </si>
+  <si>
+    <t>JL. RAYA PODO NO.156 KEDUNGWUNI PEKALONGAN</t>
+  </si>
+  <si>
+    <t>BT06551</t>
+  </si>
+  <si>
+    <t>DEYNA CELL</t>
+  </si>
+  <si>
+    <t>JL. RY PANINGGARAN KM. 1</t>
+  </si>
+  <si>
+    <t>BT07781</t>
+  </si>
+  <si>
+    <t>DHIKA CELL</t>
+  </si>
+  <si>
+    <t>JL DESA KLEGEN,SUSUKAN TENGAH KEC COMAL PEMALANG</t>
+  </si>
+  <si>
+    <t>BT00523</t>
+  </si>
+  <si>
+    <t>DIVA CELL PEKALONGAN</t>
+  </si>
+  <si>
+    <t>JL KERTIJAYAN NO 14 BUARAN PEKALONGAN</t>
+  </si>
+  <si>
+    <t>BTO5415</t>
+  </si>
+  <si>
+    <t>FANS CELL BATANG</t>
+  </si>
+  <si>
+    <t>RUKO DEPAN PASAR LIMPUNG BLOK B22</t>
+  </si>
+  <si>
+    <t>BTO4971</t>
+  </si>
+  <si>
+    <t>FARA CELL BATANG</t>
+  </si>
+  <si>
+    <t>JL WALISONGO NO 9 (DEPAN MASJID BAWANG)</t>
+  </si>
+  <si>
+    <t>BTO4691</t>
+  </si>
+  <si>
+    <t>FITZA CELL PEKALONGAN</t>
+  </si>
+  <si>
+    <t>JALAN RAYA PANINGGARAN NO.90 RT 001 RW 003,</t>
+  </si>
+  <si>
+    <t>BTO5203</t>
+  </si>
+  <si>
+    <t>FRIDAY CELL PEKALONGAN</t>
+  </si>
+  <si>
+    <t>DUKUH GEMBYANG RT 002 RW 014 SRAGI PEKALONGAN</t>
+  </si>
+  <si>
+    <t>BTO5582</t>
+  </si>
+  <si>
+    <t>GLOBAL CELL PEKALONGAN</t>
+  </si>
+  <si>
+    <t>JL RAYA SRAGI NO 20 PEKALONGAN</t>
+  </si>
+  <si>
+    <t>BT00552</t>
+  </si>
+  <si>
+    <t>GLORIA CELL PEMALANG</t>
+  </si>
+  <si>
+    <t>JL KARTINI NO 140 PETARUKAN PEMALANG</t>
+  </si>
+  <si>
+    <t>BTO5634</t>
+  </si>
+  <si>
+    <t>HARMONI PEKALONGAN</t>
+  </si>
+  <si>
+    <t>JL SALAK NO 80 SAMPANGAN PEKALONGAN</t>
+  </si>
+  <si>
+    <t>BTO5635</t>
+  </si>
+  <si>
+    <t>INDAH CELL BATANG</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>BTO5666</t>
+  </si>
+  <si>
+    <t>IRAMA MAS STORE</t>
+  </si>
+  <si>
+    <t>JALAN VETERAN RUKO PJKA NO. 1</t>
+  </si>
+  <si>
+    <t>BTO4688</t>
+  </si>
+  <si>
+    <t>ISTANA PONSEL COMAL</t>
+  </si>
+  <si>
+    <t>JL A. YANI NO 66 COMAL KAB. PEMALANG</t>
+  </si>
+  <si>
+    <t>BT06546</t>
+  </si>
+  <si>
+    <t>IVAN CELL</t>
+  </si>
+  <si>
+    <t>DS. KETAPANG RT/RW: 01/01</t>
+  </si>
+  <si>
+    <t>KAB. PEMALANG</t>
+  </si>
+  <si>
+    <t>BTO5206</t>
+  </si>
+  <si>
+    <t>JDN CELL PEKALONGAN</t>
+  </si>
+  <si>
+    <t>JL RAAYA WONOPRINGGO (DEPAN POM BENSIN) KAB. PEKALONGAN</t>
+  </si>
+  <si>
+    <t>BTO5641</t>
+  </si>
+  <si>
+    <t>JIMY PHONE WIRADESA</t>
+  </si>
+  <si>
+    <t>JL RAYA KAMPIL WIRADESA PEKALONGAN</t>
+  </si>
+  <si>
+    <t>BT03432</t>
+  </si>
+  <si>
+    <t>KJ PHONE PEKALONGAN</t>
+  </si>
+  <si>
+    <t>JL RAYA BLIGO, BUARAN, KAB. PEKALONGAN</t>
+  </si>
+  <si>
+    <t>BTO5381</t>
+  </si>
+  <si>
+    <t>KOBER CELL PEKALONGAN</t>
+  </si>
+  <si>
+    <t>DK. KRAJAN RT. 004 RW. 003 DORO PEKALONGAN</t>
+  </si>
+  <si>
+    <t>BTO5651</t>
+  </si>
+  <si>
+    <t>KOMET CELL PEMALANG</t>
+  </si>
+  <si>
+    <t>BELIK KRAJAN KULON RT 008 / RW 001</t>
+  </si>
+  <si>
+    <t>BTO5736</t>
+  </si>
+  <si>
+    <t>MAJU CELL</t>
+  </si>
+  <si>
+    <t>JL MERDEKA NO 5 PEKALONGAN JAWA TENGAH</t>
+  </si>
+  <si>
+    <t>BTO5195</t>
+  </si>
+  <si>
+    <t>MITRA SEJATI PEMALANG</t>
+  </si>
+  <si>
+    <t>JL JENDRAL SUDIRMAN 109-111 PEMALANG (MITRA SEJATI PEMALANG)</t>
+  </si>
+  <si>
+    <t>BTO5694</t>
+  </si>
+  <si>
+    <t>MM CELL RANDUDONGKAL</t>
+  </si>
+  <si>
+    <t>JL GATOT SUBROTO KAF SWA NO 5 PASAR RANDUDONGKAL</t>
+  </si>
+  <si>
+    <t>RADUDONGKAL</t>
+  </si>
+  <si>
+    <t>BT03403</t>
+  </si>
+  <si>
+    <t>MODERN CELL</t>
+  </si>
+  <si>
+    <t>JL HASANUDIN NO 14 KAUMAN PEKALONGAN TIMUR</t>
+  </si>
+  <si>
+    <t>PEKALONGAN TIMUR</t>
+  </si>
+  <si>
+    <t>BT00616</t>
+  </si>
+  <si>
+    <t>NABILA CELL PEMALANG</t>
+  </si>
+  <si>
+    <t>JL AHMAD YANI UTARA 138 PEMALANG</t>
+  </si>
+  <si>
+    <t>BTO5008</t>
+  </si>
+  <si>
+    <t>NAMIRA CELL KESESI</t>
+  </si>
+  <si>
+    <t>JALAN BAHUREKSO KESESI (DEPAN INDOMARET KESESI)</t>
+  </si>
+  <si>
+    <t>BTO5590</t>
+  </si>
+  <si>
+    <t>PICK CELL BATANG</t>
+  </si>
+  <si>
+    <t>PASAR BANDAR RUKO NO.8F</t>
+  </si>
+  <si>
+    <t>BTO5379</t>
+  </si>
+  <si>
+    <t>POINT PLUS LIMPUNG</t>
+  </si>
+  <si>
+    <t>JALAN RAYA LIMPUNG - BANYUPUTIH, BENDUNGAN, SEMPU,</t>
+  </si>
+  <si>
+    <t>LIMPUNG</t>
+  </si>
+  <si>
+    <t>BTO5573</t>
+  </si>
+  <si>
+    <t>QUEEN CELL PEMALANG</t>
+  </si>
+  <si>
+    <t>JL JENDRAL SUDIRMAN NO 4 DUSUN 2 RANDUDONGKAL</t>
+  </si>
+  <si>
+    <t>BTO4599</t>
+  </si>
+  <si>
+    <t>SAPTA CELL PEKALONGAN</t>
+  </si>
+  <si>
+    <t>JL RAYA KARANGSARI - KARANGANYAR PEKALONGAN (DEPAN BALAIDESA KARANGSARI)</t>
+  </si>
+  <si>
+    <t>BTO5364</t>
+  </si>
+  <si>
+    <t>SENTRAL SHOP PEMALANG</t>
+  </si>
+  <si>
+    <t>JL GATOT SUBROTO NO 51 RANDUDONGKAL NO 51 RANDUDONGKAL PEMALANG</t>
+  </si>
+  <si>
+    <t>BTO5505</t>
+  </si>
+  <si>
+    <t>SN CELLULER PEKALONGAN</t>
+  </si>
+  <si>
+    <t>JL RAYA 320 KEDUNGWUNI (DEPAN POLSEK)</t>
+  </si>
+  <si>
+    <t>BTO5506</t>
+  </si>
+  <si>
+    <t>SOLO CELLULER PEKALONGAN</t>
+  </si>
+  <si>
+    <t>JL. RY KESESI RUKO GRAND KESESI NO 4 SMPING TRMINAL</t>
+  </si>
+  <si>
+    <t>BTO5603</t>
+  </si>
+  <si>
+    <t>SOLUSINDO COMAL</t>
+  </si>
+  <si>
+    <t>JL KENANGA 1 NO 448 COMAL</t>
+  </si>
+  <si>
+    <t>COMAL</t>
+  </si>
+  <si>
+    <t>BTO5147</t>
+  </si>
+  <si>
+    <t>STARLINDO CELLULAR PEKALONGAN</t>
+  </si>
+  <si>
+    <t>JALAN HAYAM WURUK NO. 40 (DEPAN BANK DANAMON)</t>
+  </si>
+  <si>
+    <t>BTO5743</t>
+  </si>
+  <si>
+    <t>SUMEH CELL COMAL</t>
+  </si>
+  <si>
+    <t>JL A YANI RUKO C.7 COMAL</t>
+  </si>
+  <si>
+    <t>BTO5626</t>
+  </si>
+  <si>
+    <t>WIJAYA CELL PEKALONGAN</t>
+  </si>
+  <si>
+    <t>JL PAHLAWAN NO 488 KAJEN PEKALONGAN</t>
+  </si>
+  <si>
+    <t>BT06510</t>
+  </si>
+  <si>
+    <t>YUFA CELL</t>
+  </si>
+  <si>
+    <t>RUKO PSR CERIH RT/RW: 02/02</t>
+  </si>
+  <si>
+    <t>KAB. TEGAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,21 +511,28 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -114,19 +540,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -425,16 +943,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A2" sqref="A2:I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,34 +990,1261 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <conditionalFormatting sqref="E2:E44">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>